--- a/data/2.2.Phylogenetics_Bayesian/calibration_nodes.xlsx
+++ b/data/2.2.Phylogenetics_Bayesian/calibration_nodes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexg\GitHub\ch3-netbio\data\2.2.Phylogenetics_Bayesian\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311823F1-7C47-4E1B-8F72-C37D3D48E52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,205 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+  <si>
+    <t>pae Pseudomonas aeruginosa PAO1</t>
+  </si>
+  <si>
+    <t>pau Pseudomonas aeruginosa UCBPP-PA14</t>
+  </si>
+  <si>
+    <t>stm Salmonella enterica subsp. enterica serovar Typhimurium LT2</t>
+  </si>
+  <si>
+    <t>seo Salmonella enterica subsp. enterica serovar Typhimurium 14028S</t>
+  </si>
+  <si>
+    <t>ecr Escherichia coli O8 IAI1 (commensal)</t>
+  </si>
+  <si>
+    <t>ebw Escherichia coli K-12 BW2952</t>
+  </si>
+  <si>
+    <t>rrc Rickettsia rickettsii Colombia</t>
+  </si>
+  <si>
+    <t>cdf Clostridioides difficile 630</t>
+  </si>
+  <si>
+    <t>bce Bacillus cereus ATCC 14579</t>
+  </si>
+  <si>
+    <t>sau Staphylococcus aureus subsp. aureus N315 (MRSA/VSSA)</t>
+  </si>
+  <si>
+    <t>aae Aquifex aeolicus</t>
+  </si>
+  <si>
+    <t>bsu Bacillus subtilis subsp. subtilis 168</t>
+  </si>
+  <si>
+    <t>cje Campylobacter jejuni subsp. jejuni NCTC 11168 = ATCC 700819</t>
+  </si>
+  <si>
+    <t>cgl Corynebacterium glutamicum ATCC 13032 (Kyowa Hakko)</t>
+  </si>
+  <si>
+    <t>dra Deinococcus radiodurans</t>
+  </si>
+  <si>
+    <t>fnu Fusobacterium nucleatum subsp. nucleatum ATCC 25586</t>
+  </si>
+  <si>
+    <t>mka Methanopyrus kandleri</t>
+  </si>
+  <si>
+    <t>mac Methanosarcina acetivorans</t>
+  </si>
+  <si>
+    <t>mma Methanosarcina mazei Go1</t>
+  </si>
+  <si>
+    <t>nme Neisseria meningitidis MC58 (serogroup B)</t>
+  </si>
+  <si>
+    <t>pfu Pyrococcus furiosus DSM 3638</t>
+  </si>
+  <si>
+    <t>rpr Rickettsia prowazekii Madrid E</t>
+  </si>
+  <si>
+    <t>sso Saccharolobus solfataricus P2</t>
+  </si>
+  <si>
+    <t>syn Synechocystis sp. PCC 6803</t>
+  </si>
+  <si>
+    <t>tvo Thermoplasma volcanium</t>
+  </si>
+  <si>
+    <t>tel Thermosynechococcus vestitus</t>
+  </si>
+  <si>
+    <t>tma Thermotoga maritima MSB8</t>
+  </si>
+  <si>
+    <t>Species name</t>
+  </si>
+  <si>
+    <t>Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t>Alphaproteobacteria</t>
+  </si>
+  <si>
+    <t>Bacillota</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Aquaficota</t>
+  </si>
+  <si>
+    <t>Campylobacteria</t>
+  </si>
+  <si>
+    <t>Actinomycetota</t>
+  </si>
+  <si>
+    <t>Deinococcota</t>
+  </si>
+  <si>
+    <t>Fusobacteriota</t>
+  </si>
+  <si>
+    <t>Euryarchaeota</t>
+  </si>
+  <si>
+    <t>Neisseriaceae</t>
+  </si>
+  <si>
+    <t>Thermoproteota</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Thermotogota</t>
+  </si>
+  <si>
+    <t>Prior name</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>L.CI</t>
+  </si>
+  <si>
+    <t>U.CI</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>J-K</t>
+  </si>
+  <si>
+    <t>A-B-C-I-J-K</t>
+  </si>
+  <si>
+    <t>B-C-I-J-K</t>
+  </si>
+  <si>
+    <t>C-I-J-K</t>
+  </si>
+  <si>
+    <t>D-E-F-H-I-J-K</t>
+  </si>
+  <si>
+    <t>E-F-H-I-J-K</t>
+  </si>
+  <si>
+    <t>G-H-I-J-K</t>
+  </si>
+  <si>
+    <t>O-P</t>
+  </si>
+  <si>
+    <t>L-M-N-O-P</t>
+  </si>
+  <si>
+    <t>M-N-O-P</t>
+  </si>
+  <si>
+    <t>N-O-P</t>
+  </si>
+  <si>
+    <t>Prior H</t>
+  </si>
+  <si>
+    <t>Prior I</t>
+  </si>
+  <si>
+    <t>F-H-I-J-K</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +270,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E453C70-B82D-4B92-B8DC-200ECC82D5F1}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{6E453C70-B82D-4B92-B8DC-200ECC82D5F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition ref="C1:C30"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{054FE141-09E1-4862-988F-A7A8F4BD0AD1}" name="Species name"/>
+    <tableColumn id="2" xr3:uid="{97E18FAB-4D91-4021-A000-2CFCD97A997C}" name="Phylum"/>
+    <tableColumn id="3" xr3:uid="{5815A3A6-A1CB-4F95-BDC4-F52E247F4B0E}" name="Prior name"/>
+    <tableColumn id="4" xr3:uid="{EC44C516-F044-4F5F-9501-C81102332C1F}" name="MYA"/>
+    <tableColumn id="5" xr3:uid="{45200E3F-94FD-4117-8E0F-987DA6CA4613}" name="L.CI"/>
+    <tableColumn id="6" xr3:uid="{E6F23F25-1F16-4923-90DC-AA1DF88E0DB9}" name="U.CI"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +552,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>102</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>2508</v>
+      </c>
+      <c r="E6">
+        <v>2154</v>
+      </c>
+      <c r="F6">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>2508</v>
+      </c>
+      <c r="E7">
+        <v>2154</v>
+      </c>
+      <c r="F7">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>2508</v>
+      </c>
+      <c r="E8">
+        <v>2154</v>
+      </c>
+      <c r="F8">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>2508</v>
+      </c>
+      <c r="E9">
+        <v>2154</v>
+      </c>
+      <c r="F9">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>2508</v>
+      </c>
+      <c r="E10">
+        <v>2154</v>
+      </c>
+      <c r="F10">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>2800</v>
+      </c>
+      <c r="E11">
+        <v>2452</v>
+      </c>
+      <c r="F11">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>1039</v>
+      </c>
+      <c r="E12">
+        <v>702</v>
+      </c>
+      <c r="F12">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>1039</v>
+      </c>
+      <c r="E13">
+        <v>702</v>
+      </c>
+      <c r="F13">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>2558</v>
+      </c>
+      <c r="E14">
+        <v>2310</v>
+      </c>
+      <c r="F14">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>2784</v>
+      </c>
+      <c r="E15">
+        <v>2490</v>
+      </c>
+      <c r="F15">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>2923</v>
+      </c>
+      <c r="E16">
+        <v>2587</v>
+      </c>
+      <c r="F16">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>2923</v>
+      </c>
+      <c r="E17">
+        <v>2587</v>
+      </c>
+      <c r="F17">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>2923</v>
+      </c>
+      <c r="E18">
+        <v>2587</v>
+      </c>
+      <c r="F18">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>2923</v>
+      </c>
+      <c r="E19">
+        <v>2587</v>
+      </c>
+      <c r="F19">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>2923</v>
+      </c>
+      <c r="E20">
+        <v>2587</v>
+      </c>
+      <c r="F20">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>3054</v>
+      </c>
+      <c r="E21">
+        <v>2697</v>
+      </c>
+      <c r="F21">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>3186</v>
+      </c>
+      <c r="E22">
+        <v>2801</v>
+      </c>
+      <c r="F22">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>3644</v>
+      </c>
+      <c r="E23">
+        <v>3172</v>
+      </c>
+      <c r="F23">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>3977</v>
+      </c>
+      <c r="E24">
+        <v>3434</v>
+      </c>
+      <c r="F24">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <v>233</v>
+      </c>
+      <c r="E25">
+        <v>118</v>
+      </c>
+      <c r="F25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>233</v>
+      </c>
+      <c r="E26">
+        <v>118</v>
+      </c>
+      <c r="F26">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>3085</v>
+      </c>
+      <c r="E27">
+        <v>2469</v>
+      </c>
+      <c r="F27">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>3566</v>
+      </c>
+      <c r="E28">
+        <v>2876</v>
+      </c>
+      <c r="F28">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>3781</v>
+      </c>
+      <c r="E29">
+        <v>3047</v>
+      </c>
+      <c r="F29">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>4112</v>
+      </c>
+      <c r="E30">
+        <v>3314</v>
+      </c>
+      <c r="F30">
+        <v>4486</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>